--- a/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>ACST</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,73 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="G8" s="3">
+        <v>100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
@@ -735,28 +739,31 @@
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -770,22 +777,25 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,28 +887,31 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>6800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -914,22 +937,25 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E17" s="3">
         <v>4000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
-        <v>10300</v>
-      </c>
       <c r="H17" s="3">
-        <v>5300</v>
+        <v>10200</v>
       </c>
       <c r="I17" s="3">
-        <v>31300</v>
+        <v>5200</v>
       </c>
       <c r="J17" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K17" s="3">
         <v>7900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
-        <v>-3000</v>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,71 +1042,78 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>-4300</v>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-7200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-14600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1088,45 +1128,51 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-7900</v>
-      </c>
       <c r="H23" s="3">
-        <v>-6000</v>
+        <v>-7800</v>
       </c>
       <c r="I23" s="3">
-        <v>-32700</v>
+        <v>-5900</v>
       </c>
       <c r="J23" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-7900</v>
-      </c>
       <c r="H26" s="3">
-        <v>-6000</v>
+        <v>-7800</v>
       </c>
       <c r="I26" s="3">
-        <v>-32700</v>
+        <v>-5900</v>
       </c>
       <c r="J26" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-15500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-7900</v>
-      </c>
       <c r="H27" s="3">
-        <v>-6000</v>
+        <v>-7800</v>
       </c>
       <c r="I27" s="3">
-        <v>-32700</v>
+        <v>-5900</v>
       </c>
       <c r="J27" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-15500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>4300</v>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>7500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-7900</v>
-      </c>
       <c r="H33" s="3">
-        <v>-6000</v>
+        <v>-7800</v>
       </c>
       <c r="I33" s="3">
-        <v>-32700</v>
+        <v>-5900</v>
       </c>
       <c r="J33" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-15500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-7900</v>
-      </c>
       <c r="H35" s="3">
-        <v>-6000</v>
+        <v>-7800</v>
       </c>
       <c r="I35" s="3">
-        <v>-32700</v>
+        <v>-5900</v>
       </c>
       <c r="J35" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-15500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,57 +1619,61 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>52600</v>
+        <v>47000</v>
       </c>
       <c r="E41" s="3">
-        <v>65300</v>
+        <v>52200</v>
       </c>
       <c r="F41" s="3">
-        <v>34000</v>
+        <v>64900</v>
       </c>
       <c r="G41" s="3">
-        <v>14800</v>
+        <v>33800</v>
       </c>
       <c r="H41" s="3">
-        <v>15500</v>
+        <v>14700</v>
       </c>
       <c r="I41" s="3">
-        <v>18300</v>
+        <v>15400</v>
       </c>
       <c r="J41" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K41" s="3">
         <v>32900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21500</v>
+        <v>17700</v>
       </c>
       <c r="E42" s="3">
-        <v>12600</v>
+        <v>21300</v>
       </c>
       <c r="F42" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+        <v>12500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -1591,37 +1681,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>800</v>
       </c>
       <c r="G43" s="3">
         <v>800</v>
       </c>
       <c r="H43" s="3">
+        <v>800</v>
+      </c>
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1631,11 +1727,11 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -1649,66 +1745,75 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
-        <v>5000</v>
-      </c>
       <c r="J45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>77500</v>
+        <v>69500</v>
       </c>
       <c r="E46" s="3">
-        <v>80000</v>
+        <v>76900</v>
       </c>
       <c r="F46" s="3">
-        <v>38700</v>
+        <v>79400</v>
       </c>
       <c r="G46" s="3">
-        <v>17600</v>
+        <v>38500</v>
       </c>
       <c r="H46" s="3">
-        <v>17900</v>
+        <v>17500</v>
       </c>
       <c r="I46" s="3">
-        <v>23700</v>
+        <v>17800</v>
       </c>
       <c r="J46" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K46" s="3">
         <v>38000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1751,30 +1859,33 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="D49" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -1783,19 +1894,22 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
         <v>5000</v>
       </c>
-      <c r="I49" s="3">
-        <v>10900</v>
-      </c>
       <c r="J49" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K49" s="3">
         <v>7700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1869,20 +1989,23 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>77500</v>
+        <v>152600</v>
       </c>
       <c r="E54" s="3">
-        <v>80100</v>
+        <v>77000</v>
       </c>
       <c r="F54" s="3">
-        <v>38900</v>
+        <v>79600</v>
       </c>
       <c r="G54" s="3">
-        <v>17700</v>
+        <v>38600</v>
       </c>
       <c r="H54" s="3">
-        <v>25800</v>
+        <v>17600</v>
       </c>
       <c r="I54" s="3">
-        <v>29300</v>
+        <v>25700</v>
       </c>
       <c r="J54" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K54" s="3">
         <v>49900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,48 +2095,52 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J57" s="3">
         <v>7600</v>
       </c>
-      <c r="I57" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2014,17 +2148,20 @@
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2032,10 +2169,10 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2044,45 +2181,51 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4800</v>
       </c>
-      <c r="H60" s="3">
-        <v>7700</v>
-      </c>
       <c r="I60" s="3">
-        <v>9500</v>
+        <v>7600</v>
       </c>
       <c r="J60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K60" s="3">
         <v>18300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6000</v>
+        <v>1400</v>
       </c>
       <c r="E62" s="3">
-        <v>6700</v>
+        <v>5900</v>
       </c>
       <c r="F62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G62" s="3">
         <v>3000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4000</v>
       </c>
-      <c r="I62" s="3">
-        <v>3200</v>
-      </c>
       <c r="J62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K62" s="3">
         <v>39500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9000</v>
+        <v>7100</v>
       </c>
       <c r="E66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F66" s="3">
         <v>8700</v>
       </c>
-      <c r="F66" s="3">
-        <v>5900</v>
-      </c>
       <c r="G66" s="3">
-        <v>6400</v>
+        <v>5800</v>
       </c>
       <c r="H66" s="3">
-        <v>11700</v>
+        <v>6300</v>
       </c>
       <c r="I66" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J66" s="3">
         <v>12600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>57800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-191300</v>
+        <v>-188700</v>
       </c>
       <c r="E72" s="3">
-        <v>-187300</v>
+        <v>-190000</v>
       </c>
       <c r="F72" s="3">
-        <v>-180000</v>
+        <v>-186000</v>
       </c>
       <c r="G72" s="3">
-        <v>-175900</v>
+        <v>-178800</v>
       </c>
       <c r="H72" s="3">
-        <v>-168000</v>
+        <v>-174700</v>
       </c>
       <c r="I72" s="3">
-        <v>-162000</v>
+        <v>-166900</v>
       </c>
       <c r="J72" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-230600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-210400</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68600</v>
+        <v>145500</v>
       </c>
       <c r="E76" s="3">
-        <v>71400</v>
+        <v>68100</v>
       </c>
       <c r="F76" s="3">
-        <v>33000</v>
+        <v>70900</v>
       </c>
       <c r="G76" s="3">
-        <v>11400</v>
+        <v>32800</v>
       </c>
       <c r="H76" s="3">
-        <v>14200</v>
+        <v>11300</v>
       </c>
       <c r="I76" s="3">
-        <v>16700</v>
+        <v>14100</v>
       </c>
       <c r="J76" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-7900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-7900</v>
-      </c>
       <c r="H81" s="3">
-        <v>-6000</v>
+        <v>-7800</v>
       </c>
       <c r="I81" s="3">
-        <v>-32700</v>
+        <v>-5900</v>
       </c>
       <c r="J81" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-15500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2649,22 +2848,25 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>900</v>
       </c>
       <c r="K83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4400</v>
+        <v>-7800</v>
       </c>
       <c r="E89" s="3">
-        <v>-2300</v>
+        <v>-4300</v>
       </c>
       <c r="F89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-5400</v>
       </c>
-      <c r="G89" s="3">
-        <v>-5200</v>
-      </c>
       <c r="H89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-5500</v>
       </c>
-      <c r="I89" s="3">
-        <v>-29400</v>
-      </c>
       <c r="J89" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-9100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,16 +3070,17 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -2871,16 +3092,19 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-8900</v>
+        <v>3600</v>
       </c>
       <c r="E94" s="3">
-        <v>-10800</v>
+        <v>-8800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1800</v>
+        <v>-10700</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>10400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3104,82 +3350,91 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>44500</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>25300</v>
+        <v>44200</v>
       </c>
       <c r="G100" s="3">
+        <v>25200</v>
+      </c>
+      <c r="H100" s="3">
         <v>4200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2300</v>
       </c>
-      <c r="I100" s="3">
-        <v>16900</v>
-      </c>
       <c r="J100" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K100" s="3">
         <v>12100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12800</v>
+        <v>-5200</v>
       </c>
       <c r="E102" s="3">
-        <v>31300</v>
+        <v>-12700</v>
       </c>
       <c r="F102" s="3">
-        <v>19200</v>
+        <v>31100</v>
       </c>
       <c r="G102" s="3">
+        <v>19100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>ACST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,62 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,14 +730,14 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
+      <c r="H8" s="3">
+        <v>100</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
@@ -742,14 +745,17 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -759,14 +765,14 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -780,8 +786,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -791,14 +800,14 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -812,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +838,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,31 +906,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>6700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -922,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -940,22 +962,25 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,40 +990,44 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
         <v>4500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10200</v>
       </c>
-      <c r="I17" s="3">
-        <v>5200</v>
-      </c>
       <c r="J17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K17" s="3">
         <v>31100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1008,29 +1037,32 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
-        <v>-2900</v>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-7900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1054,29 +1087,32 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-7500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1086,37 +1122,40 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-7200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-14600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1131,48 +1170,54 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1200</v>
+        <v>-4800</v>
       </c>
       <c r="E23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-32500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1200</v>
+        <v>-4800</v>
       </c>
       <c r="E26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-32500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1200</v>
+        <v>-4800</v>
       </c>
       <c r="E27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-32500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1438,61 +1507,67 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>7500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1200</v>
+        <v>-4800</v>
       </c>
       <c r="E33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-32500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1200</v>
+        <v>-4800</v>
       </c>
       <c r="E35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-32500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,63 +1705,67 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47000</v>
+        <v>42100</v>
       </c>
       <c r="E41" s="3">
+        <v>47100</v>
+      </c>
+      <c r="F41" s="3">
         <v>52200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>64900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E42" s="3">
         <v>17700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>21300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>12500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1700</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1684,40 +1773,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>800</v>
       </c>
       <c r="H43" s="3">
         <v>800</v>
       </c>
       <c r="I43" s="3">
+        <v>800</v>
+      </c>
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1730,11 +1825,11 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -1748,72 +1843,81 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E46" s="3">
         <v>69500</v>
       </c>
-      <c r="E46" s="3">
-        <v>76900</v>
-      </c>
       <c r="F46" s="3">
-        <v>79400</v>
+        <v>77000</v>
       </c>
       <c r="G46" s="3">
+        <v>79500</v>
+      </c>
+      <c r="H46" s="3">
         <v>38500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,13 +1948,16 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -1862,33 +1969,36 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>83100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="E49" s="3">
+        <v>83100</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -1897,19 +2007,22 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>5000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1992,20 +2111,23 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>152600</v>
+        <v>145600</v>
       </c>
       <c r="E54" s="3">
+        <v>152700</v>
+      </c>
+      <c r="F54" s="3">
         <v>77000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>79600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>38600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,72 +2225,79 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2172,10 +2308,10 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
@@ -2184,48 +2320,54 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E60" s="3">
         <v>5700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,40 +2398,46 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5900</v>
       </c>
-      <c r="F62" s="3">
-        <v>6600</v>
-      </c>
       <c r="G62" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>39500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-188700</v>
+        <v>-193600</v>
       </c>
       <c r="E72" s="3">
+        <v>-188800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-190000</v>
       </c>
-      <c r="F72" s="3">
-        <v>-186000</v>
-      </c>
       <c r="G72" s="3">
-        <v>-178800</v>
+        <v>-186100</v>
       </c>
       <c r="H72" s="3">
-        <v>-174700</v>
+        <v>-178900</v>
       </c>
       <c r="I72" s="3">
+        <v>-174800</v>
+      </c>
+      <c r="J72" s="3">
         <v>-166900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-160900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-230600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-210400</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E76" s="3">
         <v>145500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>68100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>70900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1200</v>
+        <v>-4800</v>
       </c>
       <c r="E81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-32500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2851,22 +3049,25 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>900</v>
       </c>
       <c r="L83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-29200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3082,8 +3302,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3095,16 +3315,19 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>700</v>
+      </c>
+      <c r="E94" s="3">
         <v>3600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>10400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3583,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3353,88 +3598,97 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>44200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>25200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>16800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>12100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>31100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>19100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
@@ -845,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E12" s="3">
         <v>500</v>
@@ -863,7 +863,7 @@
         <v>500</v>
       </c>
       <c r="J12" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K12" s="3">
         <v>2800</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -997,25 +997,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="E17" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="F17" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G17" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H17" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I17" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="J17" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K17" s="3">
         <v>31100</v>
@@ -1091,10 +1091,10 @@
         <v>4</v>
       </c>
       <c r="G20" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
@@ -1126,10 +1126,10 @@
         <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="H21" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1187,25 +1187,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E23" s="3">
         <v>1300</v>
       </c>
       <c r="F23" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="G23" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="H23" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I23" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="J23" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="K23" s="3">
         <v>-32500</v>
@@ -1292,25 +1292,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E26" s="3">
         <v>1300</v>
       </c>
       <c r="F26" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="G26" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="H26" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I26" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="J26" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="K26" s="3">
         <v>-32500</v>
@@ -1327,25 +1327,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E27" s="3">
         <v>1300</v>
       </c>
       <c r="F27" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="G27" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="H27" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I27" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="J27" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="K27" s="3">
         <v>-32500</v>
@@ -1511,10 +1511,10 @@
         <v>4</v>
       </c>
       <c r="G32" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H32" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
@@ -1537,25 +1537,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E33" s="3">
         <v>1300</v>
       </c>
       <c r="F33" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="G33" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="H33" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I33" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="J33" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="K33" s="3">
         <v>-32500</v>
@@ -1607,25 +1607,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E35" s="3">
         <v>1300</v>
       </c>
       <c r="F35" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="G35" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="H35" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I35" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="J35" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="K35" s="3">
         <v>-32500</v>
@@ -1712,25 +1712,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>42100</v>
+        <v>43100</v>
       </c>
       <c r="E41" s="3">
-        <v>47100</v>
+        <v>48200</v>
       </c>
       <c r="F41" s="3">
-        <v>52200</v>
+        <v>53400</v>
       </c>
       <c r="G41" s="3">
-        <v>64900</v>
+        <v>66400</v>
       </c>
       <c r="H41" s="3">
-        <v>33800</v>
+        <v>34600</v>
       </c>
       <c r="I41" s="3">
-        <v>14700</v>
+        <v>15100</v>
       </c>
       <c r="J41" s="3">
-        <v>15400</v>
+        <v>15800</v>
       </c>
       <c r="K41" s="3">
         <v>18100</v>
@@ -1747,19 +1747,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="E42" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="F42" s="3">
-        <v>21300</v>
+        <v>21800</v>
       </c>
       <c r="G42" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="H42" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -1785,7 +1785,7 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="3">
         <v>600</v>
@@ -1852,13 +1852,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E45" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F45" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G45" s="3">
         <v>1400</v>
@@ -1870,7 +1870,7 @@
         <v>2000</v>
       </c>
       <c r="J45" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K45" s="3">
         <v>4900</v>
@@ -1887,25 +1887,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>62400</v>
+        <v>63900</v>
       </c>
       <c r="E46" s="3">
-        <v>69500</v>
+        <v>71100</v>
       </c>
       <c r="F46" s="3">
-        <v>77000</v>
+        <v>78800</v>
       </c>
       <c r="G46" s="3">
-        <v>79500</v>
+        <v>81400</v>
       </c>
       <c r="H46" s="3">
-        <v>38500</v>
+        <v>39400</v>
       </c>
       <c r="I46" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="J46" s="3">
-        <v>17800</v>
+        <v>18200</v>
       </c>
       <c r="K46" s="3">
         <v>23500</v>
@@ -1975,7 +1975,7 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K48" s="3">
         <v>2800</v>
@@ -1992,10 +1992,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>83100</v>
+        <v>85100</v>
       </c>
       <c r="E49" s="3">
-        <v>83100</v>
+        <v>85100</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K49" s="3">
         <v>10800</v>
@@ -2115,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -2167,25 +2167,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>145600</v>
+        <v>149000</v>
       </c>
       <c r="E54" s="3">
-        <v>152700</v>
+        <v>156300</v>
       </c>
       <c r="F54" s="3">
-        <v>77000</v>
+        <v>78900</v>
       </c>
       <c r="G54" s="3">
-        <v>79600</v>
+        <v>81500</v>
       </c>
       <c r="H54" s="3">
-        <v>38600</v>
+        <v>39500</v>
       </c>
       <c r="I54" s="3">
-        <v>17600</v>
+        <v>18000</v>
       </c>
       <c r="J54" s="3">
-        <v>25700</v>
+        <v>26300</v>
       </c>
       <c r="K54" s="3">
         <v>29100</v>
@@ -2232,25 +2232,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E57" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="F57" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
       </c>
       <c r="H57" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I57" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="J57" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="K57" s="3">
         <v>7600</v>
@@ -2337,25 +2337,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E60" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F60" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G60" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H60" s="3">
         <v>2900</v>
       </c>
       <c r="I60" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="J60" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="K60" s="3">
         <v>9400</v>
@@ -2410,22 +2410,22 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F62" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="G62" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="H62" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I62" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J62" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K62" s="3">
         <v>3100</v>
@@ -2547,25 +2547,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E66" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="F66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="G66" s="3">
-        <v>8700</v>
-      </c>
       <c r="H66" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="I66" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="J66" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="K66" s="3">
         <v>12600</v>
@@ -2737,25 +2737,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-193600</v>
+        <v>-198200</v>
       </c>
       <c r="E72" s="3">
-        <v>-188800</v>
+        <v>-193300</v>
       </c>
       <c r="F72" s="3">
-        <v>-190000</v>
+        <v>-194500</v>
       </c>
       <c r="G72" s="3">
-        <v>-186100</v>
+        <v>-190500</v>
       </c>
       <c r="H72" s="3">
+        <v>-183100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-178900</v>
       </c>
-      <c r="I72" s="3">
-        <v>-174800</v>
-      </c>
       <c r="J72" s="3">
-        <v>-166900</v>
+        <v>-170900</v>
       </c>
       <c r="K72" s="3">
         <v>-160900</v>
@@ -2877,25 +2877,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>141500</v>
+        <v>144900</v>
       </c>
       <c r="E76" s="3">
-        <v>145500</v>
+        <v>149000</v>
       </c>
       <c r="F76" s="3">
-        <v>68100</v>
+        <v>69700</v>
       </c>
       <c r="G76" s="3">
-        <v>70900</v>
+        <v>72600</v>
       </c>
       <c r="H76" s="3">
-        <v>32800</v>
+        <v>33500</v>
       </c>
       <c r="I76" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="J76" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="K76" s="3">
         <v>16600</v>
@@ -2987,25 +2987,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="E81" s="3">
         <v>1300</v>
       </c>
       <c r="F81" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="G81" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="H81" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I81" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="J81" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="K81" s="3">
         <v>-32500</v>
@@ -3247,25 +3247,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="E89" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="F89" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="G89" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="H89" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="I89" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="J89" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="K89" s="3">
         <v>-29200</v>
@@ -3405,16 +3405,16 @@
         <v>700</v>
       </c>
       <c r="E94" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F94" s="3">
-        <v>-8800</v>
+        <v>-9000</v>
       </c>
       <c r="G94" s="3">
-        <v>-10700</v>
+        <v>-11000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -3601,13 +3601,13 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>44200</v>
+        <v>45200</v>
       </c>
       <c r="H100" s="3">
-        <v>25200</v>
+        <v>25800</v>
       </c>
       <c r="I100" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J100" s="3">
         <v>2300</v>
@@ -3662,25 +3662,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="E102" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F102" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="G102" s="3">
-        <v>31100</v>
+        <v>31800</v>
       </c>
       <c r="H102" s="3">
-        <v>19100</v>
+        <v>19600</v>
       </c>
       <c r="I102" s="3">
         <v>-700</v>
       </c>
       <c r="J102" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="K102" s="3">
         <v>-3400</v>

--- a/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>ACST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,111 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,17 +782,17 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -789,8 +803,14 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -803,18 +823,18 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -824,8 +844,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,43 +865,51 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="3">
         <v>1200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>400</v>
       </c>
       <c r="G12" s="3">
         <v>500</v>
       </c>
       <c r="H12" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I12" s="3">
         <v>500</v>
       </c>
       <c r="J12" s="3">
+        <v>600</v>
+      </c>
+      <c r="K12" s="3">
+        <v>500</v>
+      </c>
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,48 +943,60 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>6900</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -965,22 +1011,28 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1043,92 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F17" s="3">
         <v>5800</v>
       </c>
-      <c r="E17" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="G17" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2700</v>
-      </c>
       <c r="I17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K17" s="3">
         <v>10500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>31100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="E18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-7900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,78 +1142,92 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>900</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>-4300</v>
       </c>
-      <c r="H20" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>-1600</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-7500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="E21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-14600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1157,11 +1237,11 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1173,74 +1253,86 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-7400</v>
-      </c>
       <c r="H23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-8000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-32500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-15500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>-800</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1251,8 +1343,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1384,96 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-7400</v>
-      </c>
       <c r="H26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-32500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-15500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-7400</v>
-      </c>
       <c r="H27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-32500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-15500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1507,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1548,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1589,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1630,96 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>4300</v>
       </c>
-      <c r="H32" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>1600</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>7500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-7400</v>
-      </c>
       <c r="H33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-32500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-15500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1753,101 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-7400</v>
-      </c>
       <c r="H35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-32500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-15500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1861,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,113 +1878,133 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>43100</v>
+        <v>49600</v>
       </c>
       <c r="E41" s="3">
-        <v>48200</v>
+        <v>39200</v>
       </c>
       <c r="F41" s="3">
-        <v>53400</v>
+        <v>42700</v>
       </c>
       <c r="G41" s="3">
-        <v>66400</v>
+        <v>47700</v>
       </c>
       <c r="H41" s="3">
-        <v>34600</v>
+        <v>53000</v>
       </c>
       <c r="I41" s="3">
+        <v>65800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K41" s="3">
         <v>15100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>15800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>18100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>32900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17400</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>18100</v>
+        <v>17200</v>
       </c>
       <c r="F42" s="3">
-        <v>21800</v>
+        <v>17200</v>
       </c>
       <c r="G42" s="3">
-        <v>12800</v>
+        <v>17900</v>
       </c>
       <c r="H42" s="3">
+        <v>21600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J42" s="3">
         <v>1800</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>700</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1828,14 +2020,14 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -1846,78 +2038,96 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="E45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>63900</v>
+        <v>53300</v>
       </c>
       <c r="E46" s="3">
-        <v>71100</v>
+        <v>58800</v>
       </c>
       <c r="F46" s="3">
-        <v>78800</v>
+        <v>63300</v>
       </c>
       <c r="G46" s="3">
-        <v>81400</v>
+        <v>70500</v>
       </c>
       <c r="H46" s="3">
-        <v>39400</v>
+        <v>78000</v>
       </c>
       <c r="I46" s="3">
+        <v>80600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K46" s="3">
         <v>17900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>18200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>23500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>38000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,19 +2161,25 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -1972,57 +2188,69 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>100</v>
+      </c>
+      <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>85100</v>
+        <v>107000</v>
       </c>
       <c r="E49" s="3">
-        <v>85100</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+        <v>107000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>84300</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
+        <v>84300</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>5100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>10800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2284,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2325,55 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2407,55 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>149000</v>
+        <v>161500</v>
       </c>
       <c r="E54" s="3">
-        <v>156300</v>
+        <v>166200</v>
       </c>
       <c r="F54" s="3">
-        <v>78900</v>
+        <v>147600</v>
       </c>
       <c r="G54" s="3">
-        <v>81500</v>
+        <v>154800</v>
       </c>
       <c r="H54" s="3">
-        <v>39500</v>
+        <v>78100</v>
       </c>
       <c r="I54" s="3">
+        <v>80700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K54" s="3">
         <v>18000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>26300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>29100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>49900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2469,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,43 +2486,51 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
-        <v>5800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3000</v>
-      </c>
       <c r="G57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>15800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2291,18 +2559,24 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2311,63 +2585,75 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3800</v>
+        <v>4800</v>
       </c>
       <c r="E60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G60" s="3">
         <v>5800</v>
       </c>
-      <c r="F60" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2100</v>
-      </c>
       <c r="H60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>18300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,43 +2687,55 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>22100</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>6100</v>
-      </c>
       <c r="G62" s="3">
-        <v>6800</v>
+        <v>1400</v>
       </c>
       <c r="H62" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>4100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>39500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2769,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2810,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2851,55 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
-        <v>7300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>9100</v>
-      </c>
       <c r="G66" s="3">
-        <v>8900</v>
+        <v>7200</v>
       </c>
       <c r="H66" s="3">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="I66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K66" s="3">
         <v>6500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>57800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2913,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2950,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2991,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3032,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +3073,55 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-198200</v>
+        <v>-207300</v>
       </c>
       <c r="E72" s="3">
-        <v>-193300</v>
+        <v>-201400</v>
       </c>
       <c r="F72" s="3">
-        <v>-194500</v>
+        <v>-196400</v>
       </c>
       <c r="G72" s="3">
-        <v>-190500</v>
+        <v>-191500</v>
       </c>
       <c r="H72" s="3">
-        <v>-183100</v>
+        <v>-192700</v>
       </c>
       <c r="I72" s="3">
+        <v>-188700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-181400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-178900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-170900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-160900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-230600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-210400</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3155,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3196,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3237,55 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>144900</v>
+        <v>134900</v>
       </c>
       <c r="E76" s="3">
-        <v>149000</v>
+        <v>139900</v>
       </c>
       <c r="F76" s="3">
-        <v>69700</v>
+        <v>143500</v>
       </c>
       <c r="G76" s="3">
-        <v>72600</v>
+        <v>147600</v>
       </c>
       <c r="H76" s="3">
-        <v>33500</v>
+        <v>69100</v>
       </c>
       <c r="I76" s="3">
+        <v>71900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K76" s="3">
         <v>11600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>14400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>16600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-7900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3319,101 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-7400</v>
-      </c>
       <c r="H81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-32500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-15500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,13 +3427,15 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3052,22 +3450,28 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3505,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3546,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3587,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3628,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3669,55 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6000</v>
+        <v>-7000</v>
       </c>
       <c r="E89" s="3">
-        <v>-8000</v>
+        <v>-4100</v>
       </c>
       <c r="F89" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="H89" s="3">
         <v>-4400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-29200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-9100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,13 +3731,15 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -3305,11 +3747,11 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3318,16 +3760,22 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3809,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3850,55 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-9000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1800</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>10400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3912,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3949,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3990,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4031,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,13 +4072,19 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3601,94 +4093,112 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>45200</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>25800</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>44800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K100" s="3">
         <v>4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>16800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>12100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>600</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-13000</v>
-      </c>
       <c r="G102" s="3">
-        <v>31800</v>
+        <v>-5200</v>
       </c>
       <c r="H102" s="3">
-        <v>19600</v>
+        <v>-12900</v>
       </c>
       <c r="I102" s="3">
+        <v>31500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>5400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
@@ -873,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E12" s="3">
         <v>1100</v>
@@ -885,7 +885,7 @@
         <v>500</v>
       </c>
       <c r="H12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I12" s="3">
         <v>500</v>
@@ -970,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E17" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="F17" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="G17" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="H17" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="I17" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J17" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K17" s="3">
         <v>10500</v>
@@ -1095,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="F18" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
@@ -1107,10 +1107,10 @@
         <v>4</v>
       </c>
       <c r="I18" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="J18" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
@@ -1165,10 +1165,10 @@
         <v>4</v>
       </c>
       <c r="I20" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="J20" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1194,10 +1194,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="F21" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1206,10 +1206,10 @@
         <v>4</v>
       </c>
       <c r="I21" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="J21" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1273,25 +1273,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="E23" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="F23" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="G23" s="3">
         <v>1300</v>
       </c>
       <c r="H23" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="I23" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="J23" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K23" s="3">
         <v>-8000</v>
@@ -1317,7 +1317,7 @@
         <v>-300</v>
       </c>
       <c r="E24" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
@@ -1396,25 +1396,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="E26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-4900</v>
       </c>
       <c r="G26" s="3">
         <v>1300</v>
       </c>
       <c r="H26" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="I26" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="J26" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K26" s="3">
         <v>-8000</v>
@@ -1437,25 +1437,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="E27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-4900</v>
       </c>
       <c r="G27" s="3">
         <v>1300</v>
       </c>
       <c r="H27" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="I27" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="J27" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K27" s="3">
         <v>-8000</v>
@@ -1657,10 +1657,10 @@
         <v>4</v>
       </c>
       <c r="I32" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J32" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -1683,25 +1683,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="E33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-4900</v>
       </c>
       <c r="G33" s="3">
         <v>1300</v>
       </c>
       <c r="H33" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="I33" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="J33" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K33" s="3">
         <v>-8000</v>
@@ -1765,25 +1765,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="E35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-4900</v>
       </c>
       <c r="G35" s="3">
         <v>1300</v>
       </c>
       <c r="H35" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="I35" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="J35" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K35" s="3">
         <v>-8000</v>
@@ -1886,25 +1886,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>49600</v>
+        <v>51100</v>
       </c>
       <c r="E41" s="3">
-        <v>39200</v>
+        <v>40400</v>
       </c>
       <c r="F41" s="3">
-        <v>42700</v>
+        <v>44000</v>
       </c>
       <c r="G41" s="3">
-        <v>47700</v>
+        <v>49200</v>
       </c>
       <c r="H41" s="3">
-        <v>53000</v>
+        <v>54600</v>
       </c>
       <c r="I41" s="3">
-        <v>65800</v>
+        <v>67800</v>
       </c>
       <c r="J41" s="3">
-        <v>34300</v>
+        <v>35400</v>
       </c>
       <c r="K41" s="3">
         <v>15100</v>
@@ -1930,19 +1930,19 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="F42" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="G42" s="3">
-        <v>17900</v>
+        <v>18500</v>
       </c>
       <c r="H42" s="3">
-        <v>21600</v>
+        <v>22300</v>
       </c>
       <c r="I42" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="J42" s="3">
         <v>1800</v>
@@ -1968,7 +1968,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E43" s="3">
         <v>700</v>
@@ -2050,25 +2050,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E45" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F45" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G45" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H45" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I45" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J45" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K45" s="3">
         <v>2000</v>
@@ -2091,25 +2091,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>53300</v>
+        <v>54900</v>
       </c>
       <c r="E46" s="3">
-        <v>58800</v>
+        <v>60600</v>
       </c>
       <c r="F46" s="3">
-        <v>63300</v>
+        <v>65300</v>
       </c>
       <c r="G46" s="3">
-        <v>70500</v>
+        <v>72600</v>
       </c>
       <c r="H46" s="3">
-        <v>78000</v>
+        <v>80400</v>
       </c>
       <c r="I46" s="3">
-        <v>80600</v>
+        <v>83100</v>
       </c>
       <c r="J46" s="3">
-        <v>39000</v>
+        <v>40200</v>
       </c>
       <c r="K46" s="3">
         <v>17900</v>
@@ -2214,16 +2214,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>107000</v>
+        <v>110200</v>
       </c>
       <c r="E49" s="3">
-        <v>107000</v>
+        <v>110200</v>
       </c>
       <c r="F49" s="3">
-        <v>84300</v>
+        <v>86800</v>
       </c>
       <c r="G49" s="3">
-        <v>84300</v>
+        <v>86800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -2419,25 +2419,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>161500</v>
+        <v>166400</v>
       </c>
       <c r="E54" s="3">
-        <v>166200</v>
+        <v>171300</v>
       </c>
       <c r="F54" s="3">
-        <v>147600</v>
+        <v>152100</v>
       </c>
       <c r="G54" s="3">
-        <v>154800</v>
+        <v>159500</v>
       </c>
       <c r="H54" s="3">
-        <v>78100</v>
+        <v>80500</v>
       </c>
       <c r="I54" s="3">
-        <v>80700</v>
+        <v>83200</v>
       </c>
       <c r="J54" s="3">
-        <v>39200</v>
+        <v>40400</v>
       </c>
       <c r="K54" s="3">
         <v>18000</v>
@@ -2494,25 +2494,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E57" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F57" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G57" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="H57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
         <v>2900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2800</v>
       </c>
       <c r="K57" s="3">
         <v>4800</v>
@@ -2576,7 +2576,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2617,25 +2617,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E60" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F60" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="G60" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="H60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J60" s="3">
         <v>3000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2900</v>
       </c>
       <c r="K60" s="3">
         <v>4900</v>
@@ -2699,25 +2699,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21700</v>
+        <v>22400</v>
       </c>
       <c r="E62" s="3">
-        <v>22100</v>
+        <v>22800</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H62" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I62" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="J62" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K62" s="3">
         <v>1600</v>
@@ -2863,25 +2863,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26500</v>
+        <v>27300</v>
       </c>
       <c r="E66" s="3">
-        <v>26300</v>
+        <v>27100</v>
       </c>
       <c r="F66" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G66" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H66" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="I66" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="J66" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="K66" s="3">
         <v>6500</v>
@@ -3085,25 +3085,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-207300</v>
+        <v>-213600</v>
       </c>
       <c r="E72" s="3">
-        <v>-201400</v>
+        <v>-207500</v>
       </c>
       <c r="F72" s="3">
-        <v>-196400</v>
+        <v>-202300</v>
       </c>
       <c r="G72" s="3">
-        <v>-191500</v>
+        <v>-197300</v>
       </c>
       <c r="H72" s="3">
-        <v>-192700</v>
+        <v>-198600</v>
       </c>
       <c r="I72" s="3">
-        <v>-188700</v>
+        <v>-194500</v>
       </c>
       <c r="J72" s="3">
-        <v>-181400</v>
+        <v>-186900</v>
       </c>
       <c r="K72" s="3">
         <v>-178900</v>
@@ -3249,25 +3249,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>134900</v>
+        <v>139000</v>
       </c>
       <c r="E76" s="3">
-        <v>139900</v>
+        <v>144200</v>
       </c>
       <c r="F76" s="3">
-        <v>143500</v>
+        <v>147900</v>
       </c>
       <c r="G76" s="3">
-        <v>147600</v>
+        <v>152100</v>
       </c>
       <c r="H76" s="3">
-        <v>69100</v>
+        <v>71200</v>
       </c>
       <c r="I76" s="3">
-        <v>71900</v>
+        <v>74100</v>
       </c>
       <c r="J76" s="3">
-        <v>33200</v>
+        <v>34200</v>
       </c>
       <c r="K76" s="3">
         <v>11600</v>
@@ -3377,25 +3377,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5800</v>
+        <v>-6000</v>
       </c>
       <c r="E81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-4900</v>
       </c>
       <c r="G81" s="3">
         <v>1300</v>
       </c>
       <c r="H81" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="I81" s="3">
-        <v>-7300</v>
+        <v>-7500</v>
       </c>
       <c r="J81" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="K81" s="3">
         <v>-8000</v>
@@ -3681,25 +3681,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="E89" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="F89" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="G89" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="H89" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="I89" s="3">
         <v>-2300</v>
       </c>
       <c r="J89" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="K89" s="3">
         <v>-5300</v>
@@ -3862,7 +3862,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>17100</v>
+        <v>17700</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -3871,13 +3871,13 @@
         <v>700</v>
       </c>
       <c r="G94" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H94" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="I94" s="3">
-        <v>-10900</v>
+        <v>-11200</v>
       </c>
       <c r="J94" s="3">
         <v>-1800</v>
@@ -4099,10 +4099,10 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>44800</v>
+        <v>46200</v>
       </c>
       <c r="J100" s="3">
-        <v>25500</v>
+        <v>26300</v>
       </c>
       <c r="K100" s="3">
         <v>4300</v>
@@ -4166,25 +4166,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="E102" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="F102" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="G102" s="3">
-        <v>-5200</v>
+        <v>-5400</v>
       </c>
       <c r="H102" s="3">
-        <v>-12900</v>
+        <v>-13300</v>
       </c>
       <c r="I102" s="3">
-        <v>31500</v>
+        <v>32500</v>
       </c>
       <c r="J102" s="3">
-        <v>19400</v>
+        <v>20000</v>
       </c>
       <c r="K102" s="3">
         <v>-700</v>

--- a/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>ACST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,124 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,17 +801,17 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -809,8 +822,14 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -829,18 +848,18 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -850,8 +869,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,40 +903,46 @@
         <v>900</v>
       </c>
       <c r="E12" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F12" s="3">
+        <v>900</v>
+      </c>
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
-        <v>500</v>
-      </c>
       <c r="H12" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="I12" s="3">
         <v>500</v>
       </c>
       <c r="J12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K12" s="3">
         <v>500</v>
       </c>
       <c r="L12" s="3">
+        <v>600</v>
+      </c>
+      <c r="M12" s="3">
+        <v>500</v>
+      </c>
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,61 +982,73 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>6900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -1017,22 +1062,28 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>3000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1096,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="E17" s="3">
-        <v>5900</v>
+        <v>7100</v>
       </c>
       <c r="F17" s="3">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="G17" s="3">
-        <v>4800</v>
+        <v>6100</v>
       </c>
       <c r="H17" s="3">
-        <v>4200</v>
+        <v>6200</v>
       </c>
       <c r="I17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>31100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-7900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,90 +1209,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>900</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-7500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-7500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-14600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1243,11 +1322,11 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1259,72 +1338,84 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-6300</v>
       </c>
-      <c r="E23" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1300</v>
-      </c>
       <c r="H23" s="3">
-        <v>-4200</v>
+        <v>-5200</v>
       </c>
       <c r="I23" s="3">
-        <v>-7500</v>
+        <v>1400</v>
       </c>
       <c r="J23" s="3">
         <v>-4300</v>
       </c>
       <c r="K23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-8000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-32500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-15500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1334,11 +1425,11 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6000</v>
+        <v>-5400</v>
       </c>
       <c r="E26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-5200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-4200</v>
-      </c>
       <c r="I26" s="3">
-        <v>-7500</v>
+        <v>1400</v>
       </c>
       <c r="J26" s="3">
         <v>-4300</v>
       </c>
       <c r="K26" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-32500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-15500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6000</v>
+        <v>-5400</v>
       </c>
       <c r="E27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-4200</v>
-      </c>
       <c r="I27" s="3">
-        <v>-7500</v>
+        <v>1400</v>
       </c>
       <c r="J27" s="3">
         <v>-4300</v>
       </c>
       <c r="K27" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-8000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-32500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-15500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1769,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="H32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>4400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>7500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6000</v>
+        <v>-5400</v>
       </c>
       <c r="E33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-5200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-4200</v>
-      </c>
       <c r="I33" s="3">
-        <v>-7500</v>
+        <v>1400</v>
       </c>
       <c r="J33" s="3">
         <v>-4300</v>
       </c>
       <c r="K33" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-8000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-32500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-15500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6000</v>
+        <v>-5400</v>
       </c>
       <c r="E35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-5200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-4200</v>
-      </c>
       <c r="I35" s="3">
-        <v>-7500</v>
+        <v>1400</v>
       </c>
       <c r="J35" s="3">
         <v>-4300</v>
       </c>
       <c r="K35" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-8000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-32500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-15500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,151 +2051,171 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>53100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>41900</v>
+      </c>
+      <c r="H41" s="3">
+        <v>45600</v>
+      </c>
+      <c r="I41" s="3">
         <v>51100</v>
       </c>
-      <c r="E41" s="3">
-        <v>40400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>44000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>49200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>54600</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
+        <v>56700</v>
+      </c>
+      <c r="K41" s="3">
         <v>67800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>35400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>15100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>15800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>18100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>32900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="E42" s="3">
-        <v>17700</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>17700</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>18500</v>
+        <v>18400</v>
       </c>
       <c r="H42" s="3">
-        <v>22300</v>
+        <v>18400</v>
       </c>
       <c r="I42" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K42" s="3">
         <v>13000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
+        <v>800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>600</v>
+      </c>
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
-        <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="L43" s="3">
+        <v>800</v>
+      </c>
+      <c r="M43" s="3">
+        <v>800</v>
+      </c>
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
-        <v>800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>700</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
@@ -2032,8 +2223,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2044,90 +2235,108 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="E45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3900</v>
-      </c>
       <c r="H45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>4900</v>
-      </c>
-      <c r="N45" s="3">
-        <v>3000</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>54900</v>
+        <v>46200</v>
       </c>
       <c r="E46" s="3">
-        <v>60600</v>
+        <v>51900</v>
       </c>
       <c r="F46" s="3">
-        <v>65300</v>
+        <v>57000</v>
       </c>
       <c r="G46" s="3">
-        <v>72600</v>
+        <v>63000</v>
       </c>
       <c r="H46" s="3">
-        <v>80400</v>
+        <v>67700</v>
       </c>
       <c r="I46" s="3">
+        <v>75400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K46" s="3">
         <v>83100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>40200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>17900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>18200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>23500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>38000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,25 +2376,31 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2194,63 +2409,75 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
+        <v>100</v>
+      </c>
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>110200</v>
+        <v>114500</v>
       </c>
       <c r="E49" s="3">
-        <v>110200</v>
+        <v>114500</v>
       </c>
       <c r="F49" s="3">
-        <v>86800</v>
+        <v>114500</v>
       </c>
       <c r="G49" s="3">
-        <v>86800</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+        <v>114500</v>
+      </c>
+      <c r="H49" s="3">
+        <v>90200</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>90200</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>5100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>10800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>7700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2564,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2357,23 +2596,29 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2658,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>166400</v>
+        <v>161500</v>
       </c>
       <c r="E54" s="3">
-        <v>171300</v>
+        <v>167200</v>
       </c>
       <c r="F54" s="3">
-        <v>152100</v>
+        <v>172700</v>
       </c>
       <c r="G54" s="3">
-        <v>159500</v>
+        <v>177800</v>
       </c>
       <c r="H54" s="3">
-        <v>80500</v>
+        <v>157900</v>
       </c>
       <c r="I54" s="3">
+        <v>165600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>83600</v>
+      </c>
+      <c r="K54" s="3">
         <v>83200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>40400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>26300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>29100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>49900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,49 +2747,57 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="E57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
-        <v>3800</v>
-      </c>
       <c r="G57" s="3">
-        <v>5900</v>
+        <v>4400</v>
       </c>
       <c r="H57" s="3">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="I57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>7600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>15800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2565,24 +2832,30 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>2500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2591,69 +2864,81 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>4900</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>18300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,49 +2978,61 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22400</v>
+        <v>23000</v>
       </c>
       <c r="E62" s="3">
-        <v>22800</v>
+        <v>23400</v>
       </c>
       <c r="F62" s="3">
+        <v>23300</v>
+      </c>
+      <c r="G62" s="3">
+        <v>23600</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K62" s="3">
         <v>7000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>4100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>39500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3166,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27300</v>
+        <v>27800</v>
       </c>
       <c r="E66" s="3">
-        <v>27100</v>
+        <v>28700</v>
       </c>
       <c r="F66" s="3">
-        <v>4200</v>
+        <v>28400</v>
       </c>
       <c r="G66" s="3">
-        <v>7400</v>
+        <v>28100</v>
       </c>
       <c r="H66" s="3">
-        <v>9300</v>
+        <v>4400</v>
       </c>
       <c r="I66" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K66" s="3">
         <v>9100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>11900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>57800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-213600</v>
+        <v>-233900</v>
       </c>
       <c r="E72" s="3">
-        <v>-207500</v>
+        <v>-228500</v>
       </c>
       <c r="F72" s="3">
-        <v>-202300</v>
+        <v>-221700</v>
       </c>
       <c r="G72" s="3">
-        <v>-197300</v>
+        <v>-215500</v>
       </c>
       <c r="H72" s="3">
-        <v>-198600</v>
+        <v>-210100</v>
       </c>
       <c r="I72" s="3">
+        <v>-204900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-206200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-194500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-186900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-178900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-170900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-160900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-230600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-210400</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>139000</v>
+        <v>133700</v>
       </c>
       <c r="E76" s="3">
-        <v>144200</v>
+        <v>138500</v>
       </c>
       <c r="F76" s="3">
-        <v>147900</v>
+        <v>144400</v>
       </c>
       <c r="G76" s="3">
-        <v>152100</v>
+        <v>149700</v>
       </c>
       <c r="H76" s="3">
-        <v>71200</v>
+        <v>153600</v>
       </c>
       <c r="I76" s="3">
+        <v>157900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K76" s="3">
         <v>74100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>34200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>11600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>14400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>16600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-7900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6000</v>
+        <v>-5400</v>
       </c>
       <c r="E81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-5200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-4200</v>
-      </c>
       <c r="I81" s="3">
-        <v>-7500</v>
+        <v>1400</v>
       </c>
       <c r="J81" s="3">
         <v>-4300</v>
       </c>
       <c r="K81" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-8000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-32500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-15500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,20 +3824,22 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -3456,22 +3853,28 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>3000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7200</v>
+        <v>-5100</v>
       </c>
       <c r="E89" s="3">
-        <v>-4200</v>
+        <v>-4800</v>
       </c>
       <c r="F89" s="3">
-        <v>-6100</v>
+        <v>-7500</v>
       </c>
       <c r="G89" s="3">
-        <v>-8100</v>
+        <v>-4300</v>
       </c>
       <c r="H89" s="3">
-        <v>-4500</v>
+        <v>-6300</v>
       </c>
       <c r="I89" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-5300</v>
       </c>
       <c r="L89" s="3">
         <v>-5600</v>
       </c>
       <c r="M89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="O89" s="3">
         <v>-29200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-9100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,19 +4172,21 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3753,11 +4194,11 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3766,16 +4207,22 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>17700</v>
+        <v>-6900</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>700</v>
+        <v>18300</v>
       </c>
       <c r="G94" s="3">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-9200</v>
+        <v>800</v>
       </c>
       <c r="I94" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>10400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,20 +4563,26 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4099,106 +4590,124 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>46200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>26300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>16800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>12100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
-        <v>100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-1000</v>
-      </c>
       <c r="H101" s="3">
+        <v>200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10700</v>
+        <v>-12000</v>
       </c>
       <c r="E102" s="3">
-        <v>-3600</v>
+        <v>-4800</v>
       </c>
       <c r="F102" s="3">
-        <v>-5200</v>
+        <v>11100</v>
       </c>
       <c r="G102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H102" s="3">
         <v>-5400</v>
       </c>
-      <c r="H102" s="3">
-        <v>-13300</v>
-      </c>
       <c r="I102" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K102" s="3">
         <v>32500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>20000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>5400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>ACST</t>
   </si>
@@ -900,25 +900,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
+        <v>600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>800</v>
+      </c>
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
-        <v>900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1200</v>
-      </c>
       <c r="I12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J12" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K12" s="3">
         <v>500</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5900</v>
+        <v>4200</v>
       </c>
       <c r="E17" s="3">
-        <v>7100</v>
+        <v>5100</v>
       </c>
       <c r="F17" s="3">
-        <v>6500</v>
+        <v>4700</v>
       </c>
       <c r="G17" s="3">
-        <v>6100</v>
+        <v>4400</v>
       </c>
       <c r="H17" s="3">
-        <v>6200</v>
+        <v>4500</v>
       </c>
       <c r="I17" s="3">
-        <v>4900</v>
+        <v>3600</v>
       </c>
       <c r="J17" s="3">
-        <v>4300</v>
+        <v>3100</v>
       </c>
       <c r="K17" s="3">
         <v>3200</v>
@@ -1160,10 +1160,10 @@
         <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>-6100</v>
+        <v>-4400</v>
       </c>
       <c r="H18" s="3">
-        <v>-6200</v>
+        <v>-4500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
@@ -1226,10 +1226,10 @@
         <v>4</v>
       </c>
       <c r="G20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
@@ -1273,10 +1273,10 @@
         <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>-6300</v>
+        <v>-4600</v>
       </c>
       <c r="H21" s="3">
-        <v>-5200</v>
+        <v>-3800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1358,25 +1358,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5800</v>
+        <v>-4200</v>
       </c>
       <c r="E23" s="3">
-        <v>-7000</v>
+        <v>-5100</v>
       </c>
       <c r="F23" s="3">
-        <v>-6600</v>
+        <v>-4800</v>
       </c>
       <c r="G23" s="3">
-        <v>-6300</v>
+        <v>-4600</v>
       </c>
       <c r="H23" s="3">
-        <v>-5200</v>
+        <v>-3800</v>
       </c>
       <c r="I23" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="J23" s="3">
-        <v>-4300</v>
+        <v>-3100</v>
       </c>
       <c r="K23" s="3">
         <v>-7500</v>
@@ -1405,16 +1405,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E24" s="3">
         <v>-200</v>
       </c>
       <c r="F24" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G24" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
@@ -1499,25 +1499,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5400</v>
+        <v>-3900</v>
       </c>
       <c r="E26" s="3">
-        <v>-6800</v>
+        <v>-4900</v>
       </c>
       <c r="F26" s="3">
-        <v>-6300</v>
+        <v>-4500</v>
       </c>
       <c r="G26" s="3">
-        <v>-5400</v>
+        <v>-3900</v>
       </c>
       <c r="H26" s="3">
-        <v>-5200</v>
+        <v>-3800</v>
       </c>
       <c r="I26" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="J26" s="3">
-        <v>-4300</v>
+        <v>-3100</v>
       </c>
       <c r="K26" s="3">
         <v>-7500</v>
@@ -1546,25 +1546,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5400</v>
+        <v>-3900</v>
       </c>
       <c r="E27" s="3">
-        <v>-6800</v>
+        <v>-4900</v>
       </c>
       <c r="F27" s="3">
-        <v>-6300</v>
+        <v>-4500</v>
       </c>
       <c r="G27" s="3">
-        <v>-5400</v>
+        <v>-3900</v>
       </c>
       <c r="H27" s="3">
-        <v>-5200</v>
+        <v>-3800</v>
       </c>
       <c r="I27" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="J27" s="3">
-        <v>-4300</v>
+        <v>-3100</v>
       </c>
       <c r="K27" s="3">
         <v>-7500</v>
@@ -1790,10 +1790,10 @@
         <v>4</v>
       </c>
       <c r="G32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>-1000</v>
+        <v>-700</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
@@ -1828,25 +1828,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5400</v>
+        <v>-3900</v>
       </c>
       <c r="E33" s="3">
-        <v>-6800</v>
+        <v>-4900</v>
       </c>
       <c r="F33" s="3">
-        <v>-6300</v>
+        <v>-4500</v>
       </c>
       <c r="G33" s="3">
-        <v>-5400</v>
+        <v>-3900</v>
       </c>
       <c r="H33" s="3">
-        <v>-5200</v>
+        <v>-3800</v>
       </c>
       <c r="I33" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="J33" s="3">
-        <v>-4300</v>
+        <v>-3100</v>
       </c>
       <c r="K33" s="3">
         <v>-7500</v>
@@ -1922,25 +1922,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5400</v>
+        <v>-3900</v>
       </c>
       <c r="E35" s="3">
-        <v>-6800</v>
+        <v>-4900</v>
       </c>
       <c r="F35" s="3">
-        <v>-6300</v>
+        <v>-4500</v>
       </c>
       <c r="G35" s="3">
-        <v>-5400</v>
+        <v>-3900</v>
       </c>
       <c r="H35" s="3">
-        <v>-5200</v>
+        <v>-3800</v>
       </c>
       <c r="I35" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="J35" s="3">
-        <v>-4300</v>
+        <v>-3100</v>
       </c>
       <c r="K35" s="3">
         <v>-7500</v>
@@ -2059,25 +2059,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36300</v>
+        <v>26200</v>
       </c>
       <c r="E41" s="3">
-        <v>48300</v>
+        <v>34900</v>
       </c>
       <c r="F41" s="3">
-        <v>53100</v>
+        <v>38400</v>
       </c>
       <c r="G41" s="3">
-        <v>41900</v>
+        <v>30300</v>
       </c>
       <c r="H41" s="3">
-        <v>45600</v>
+        <v>33000</v>
       </c>
       <c r="I41" s="3">
-        <v>51100</v>
+        <v>36900</v>
       </c>
       <c r="J41" s="3">
-        <v>56700</v>
+        <v>41000</v>
       </c>
       <c r="K41" s="3">
         <v>67800</v>
@@ -2106,7 +2106,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6900</v>
+        <v>5000</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2115,16 +2115,16 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>18400</v>
+        <v>13300</v>
       </c>
       <c r="H42" s="3">
-        <v>18400</v>
+        <v>13300</v>
       </c>
       <c r="I42" s="3">
-        <v>19200</v>
+        <v>13900</v>
       </c>
       <c r="J42" s="3">
-        <v>23200</v>
+        <v>16700</v>
       </c>
       <c r="K42" s="3">
         <v>13000</v>
@@ -2153,25 +2153,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="F43" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="G43" s="3">
+        <v>500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
-        <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1100</v>
-      </c>
       <c r="J43" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K43" s="3">
         <v>700</v>
@@ -2247,25 +2247,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3400</v>
-      </c>
       <c r="I45" s="3">
-        <v>4100</v>
+        <v>2900</v>
       </c>
       <c r="J45" s="3">
-        <v>3100</v>
+        <v>2200</v>
       </c>
       <c r="K45" s="3">
         <v>1500</v>
@@ -2294,25 +2294,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>46200</v>
+        <v>33400</v>
       </c>
       <c r="E46" s="3">
-        <v>51900</v>
+        <v>37500</v>
       </c>
       <c r="F46" s="3">
-        <v>57000</v>
+        <v>41200</v>
       </c>
       <c r="G46" s="3">
-        <v>63000</v>
+        <v>45500</v>
       </c>
       <c r="H46" s="3">
-        <v>67700</v>
+        <v>49000</v>
       </c>
       <c r="I46" s="3">
-        <v>75400</v>
+        <v>54500</v>
       </c>
       <c r="J46" s="3">
-        <v>83500</v>
+        <v>60400</v>
       </c>
       <c r="K46" s="3">
         <v>83100</v>
@@ -2388,22 +2388,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
-        <v>1300</v>
-      </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2435,22 +2435,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>114500</v>
+        <v>82800</v>
       </c>
       <c r="E49" s="3">
-        <v>114500</v>
+        <v>82800</v>
       </c>
       <c r="F49" s="3">
-        <v>114500</v>
+        <v>82800</v>
       </c>
       <c r="G49" s="3">
-        <v>114500</v>
+        <v>82800</v>
       </c>
       <c r="H49" s="3">
-        <v>90200</v>
+        <v>65200</v>
       </c>
       <c r="I49" s="3">
-        <v>90200</v>
+        <v>65200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -2670,25 +2670,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>161500</v>
+        <v>116800</v>
       </c>
       <c r="E54" s="3">
-        <v>167200</v>
+        <v>120900</v>
       </c>
       <c r="F54" s="3">
-        <v>172700</v>
+        <v>124900</v>
       </c>
       <c r="G54" s="3">
-        <v>177800</v>
+        <v>128600</v>
       </c>
       <c r="H54" s="3">
-        <v>157900</v>
+        <v>114200</v>
       </c>
       <c r="I54" s="3">
-        <v>165600</v>
+        <v>119800</v>
       </c>
       <c r="J54" s="3">
-        <v>83600</v>
+        <v>60500</v>
       </c>
       <c r="K54" s="3">
         <v>83200</v>
@@ -2755,25 +2755,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4600</v>
+        <v>3400</v>
       </c>
       <c r="E57" s="3">
-        <v>5200</v>
+        <v>3700</v>
       </c>
       <c r="F57" s="3">
-        <v>4200</v>
+        <v>3100</v>
       </c>
       <c r="G57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I57" s="3">
         <v>4400</v>
       </c>
-      <c r="H57" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>6100</v>
-      </c>
       <c r="J57" s="3">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="K57" s="3">
         <v>1000</v>
@@ -2855,7 +2855,7 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -2864,7 +2864,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -2896,25 +2896,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4700</v>
+        <v>3400</v>
       </c>
       <c r="E60" s="3">
-        <v>5300</v>
+        <v>3800</v>
       </c>
       <c r="F60" s="3">
-        <v>5100</v>
+        <v>3700</v>
       </c>
       <c r="G60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>6200</v>
-      </c>
       <c r="J60" s="3">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="K60" s="3">
         <v>2100</v>
@@ -2990,25 +2990,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23000</v>
+        <v>16600</v>
       </c>
       <c r="E62" s="3">
-        <v>23400</v>
+        <v>16900</v>
       </c>
       <c r="F62" s="3">
-        <v>23300</v>
+        <v>16800</v>
       </c>
       <c r="G62" s="3">
-        <v>23600</v>
+        <v>17100</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="J62" s="3">
-        <v>6400</v>
+        <v>4700</v>
       </c>
       <c r="K62" s="3">
         <v>7000</v>
@@ -3178,25 +3178,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27800</v>
+        <v>20100</v>
       </c>
       <c r="E66" s="3">
-        <v>28700</v>
+        <v>20700</v>
       </c>
       <c r="F66" s="3">
-        <v>28400</v>
+        <v>20500</v>
       </c>
       <c r="G66" s="3">
-        <v>28100</v>
+        <v>20400</v>
       </c>
       <c r="H66" s="3">
-        <v>4400</v>
+        <v>3200</v>
       </c>
       <c r="I66" s="3">
-        <v>7700</v>
+        <v>5600</v>
       </c>
       <c r="J66" s="3">
-        <v>9700</v>
+        <v>7000</v>
       </c>
       <c r="K66" s="3">
         <v>9100</v>
@@ -3432,25 +3432,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-233900</v>
+        <v>-169200</v>
       </c>
       <c r="E72" s="3">
-        <v>-228500</v>
+        <v>-165300</v>
       </c>
       <c r="F72" s="3">
-        <v>-221700</v>
+        <v>-160400</v>
       </c>
       <c r="G72" s="3">
-        <v>-215500</v>
+        <v>-155800</v>
       </c>
       <c r="H72" s="3">
-        <v>-210100</v>
+        <v>-151900</v>
       </c>
       <c r="I72" s="3">
-        <v>-204900</v>
+        <v>-148200</v>
       </c>
       <c r="J72" s="3">
-        <v>-206200</v>
+        <v>-149100</v>
       </c>
       <c r="K72" s="3">
         <v>-194500</v>
@@ -3620,25 +3620,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>133700</v>
+        <v>96700</v>
       </c>
       <c r="E76" s="3">
-        <v>138500</v>
+        <v>100200</v>
       </c>
       <c r="F76" s="3">
-        <v>144400</v>
+        <v>104400</v>
       </c>
       <c r="G76" s="3">
-        <v>149700</v>
+        <v>108300</v>
       </c>
       <c r="H76" s="3">
-        <v>153600</v>
+        <v>111100</v>
       </c>
       <c r="I76" s="3">
-        <v>157900</v>
+        <v>114200</v>
       </c>
       <c r="J76" s="3">
-        <v>73900</v>
+        <v>53500</v>
       </c>
       <c r="K76" s="3">
         <v>74100</v>
@@ -3766,25 +3766,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5400</v>
+        <v>-3900</v>
       </c>
       <c r="E81" s="3">
-        <v>-6800</v>
+        <v>-4900</v>
       </c>
       <c r="F81" s="3">
-        <v>-6300</v>
+        <v>-4500</v>
       </c>
       <c r="G81" s="3">
-        <v>-5400</v>
+        <v>-3900</v>
       </c>
       <c r="H81" s="3">
-        <v>-5200</v>
+        <v>-3800</v>
       </c>
       <c r="I81" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="J81" s="3">
-        <v>-4300</v>
+        <v>-3100</v>
       </c>
       <c r="K81" s="3">
         <v>-7500</v>
@@ -4114,25 +4114,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5100</v>
+        <v>-3700</v>
       </c>
       <c r="E89" s="3">
-        <v>-4800</v>
+        <v>-3400</v>
       </c>
       <c r="F89" s="3">
-        <v>-7500</v>
+        <v>-5400</v>
       </c>
       <c r="G89" s="3">
-        <v>-4300</v>
+        <v>-3100</v>
       </c>
       <c r="H89" s="3">
-        <v>-6300</v>
+        <v>-4600</v>
       </c>
       <c r="I89" s="3">
-        <v>-8400</v>
+        <v>-6100</v>
       </c>
       <c r="J89" s="3">
-        <v>-4700</v>
+        <v>-3400</v>
       </c>
       <c r="K89" s="3">
         <v>-2300</v>
@@ -4188,17 +4188,17 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4321,25 +4321,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6900</v>
+        <v>-5000</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>18300</v>
+        <v>13300</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I94" s="3">
-        <v>3900</v>
+        <v>2800</v>
       </c>
       <c r="J94" s="3">
-        <v>-9600</v>
+        <v>-6900</v>
       </c>
       <c r="K94" s="3">
         <v>-11200</v>
@@ -4578,10 +4578,10 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>300</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4622,25 +4622,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>500</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>600</v>
-      </c>
-      <c r="H101" s="3">
-        <v>200</v>
-      </c>
       <c r="I101" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="J101" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
@@ -4669,25 +4669,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12000</v>
+        <v>-8700</v>
       </c>
       <c r="E102" s="3">
-        <v>-4800</v>
+        <v>-3500</v>
       </c>
       <c r="F102" s="3">
-        <v>11100</v>
+        <v>8000</v>
       </c>
       <c r="G102" s="3">
-        <v>-3700</v>
+        <v>-2700</v>
       </c>
       <c r="H102" s="3">
-        <v>-5400</v>
+        <v>-3900</v>
       </c>
       <c r="I102" s="3">
-        <v>-5600</v>
+        <v>-4000</v>
       </c>
       <c r="J102" s="3">
-        <v>-13800</v>
+        <v>-10000</v>
       </c>
       <c r="K102" s="3">
         <v>32500</v>

--- a/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>ACST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,41 +756,47 @@
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,17 +821,17 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,18 +874,18 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>600</v>
       </c>
       <c r="M12" s="3">
         <v>500</v>
       </c>
       <c r="N12" s="3">
+        <v>600</v>
+      </c>
+      <c r="O12" s="3">
+        <v>500</v>
+      </c>
+      <c r="P12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,73 +1022,85 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>33900</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>6900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -1068,22 +1114,28 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>3000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,55 +1150,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>38100</v>
+      </c>
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>31100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1159,41 +1219,47 @@
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-4400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-4500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1225,41 +1293,47 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1272,67 +1346,73 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-7500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1344,63 +1424,75 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-32500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1408,20 +1500,20 @@
         <v>-300</v>
       </c>
       <c r="E24" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1431,11 +1523,11 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-32500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-8000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-32500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1789,88 +1929,100 @@
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>7500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-32500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-32500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,102 +2225,116 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F41" s="3">
         <v>26200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>34900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>38400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>30300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>33000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>36900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>41000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>67800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>35400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>15100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>15800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>18100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>32900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>5000</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>13300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>13300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>13900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>16700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>13000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2156,46 +2342,52 @@
         <v>800</v>
       </c>
       <c r="E43" s="3">
+        <v>800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>800</v>
+      </c>
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2220,8 +2412,8 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2229,8 +2421,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2241,102 +2433,120 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1500</v>
       </c>
       <c r="L45" s="3">
         <v>2200</v>
       </c>
       <c r="M45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>4900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F46" s="3">
         <v>33400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>37500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>41200</v>
       </c>
-      <c r="G46" s="3">
-        <v>45500</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>45300</v>
+      </c>
+      <c r="J46" s="3">
         <v>49000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>54500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>60400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>83100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>40200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>17900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>18200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>23500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>38000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,63 +2592,75 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
       </c>
       <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>600</v>
+      </c>
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
-        <v>300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
       <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>100</v>
+      </c>
+      <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>82800</v>
+        <v>49300</v>
       </c>
       <c r="E49" s="3">
-        <v>82800</v>
+        <v>49300</v>
       </c>
       <c r="F49" s="3">
         <v>82800</v>
@@ -2447,37 +2669,43 @@
         <v>82800</v>
       </c>
       <c r="H49" s="3">
+        <v>82800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>82800</v>
+      </c>
+      <c r="J49" s="3">
         <v>65200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>65200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
       <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>5100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>10800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>7700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2602,23 +2842,29 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>79100</v>
+      </c>
+      <c r="F54" s="3">
         <v>116800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>120900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>124900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>128600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>114200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>119800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>60500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>83200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>40400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>18000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>26300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>29100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>49900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,55 +3009,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>7700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>15800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2838,107 +3106,125 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>2500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G60" s="3">
         <v>3800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>18300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,55 +3270,67 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F62" s="3">
         <v>16600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>16900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>16800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>17100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>7000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>39500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F66" s="3">
         <v>20100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>20700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>20500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>20400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>12600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>57800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-202300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-198300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-169200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-165300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-160400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-155800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-151900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-148200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-149100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-194500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-186900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-178900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-170900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-160900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-230600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-210400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F76" s="3">
         <v>96700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>100200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>104400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>108300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>111100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>114200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>53500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>74100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>34200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>14400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>16600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-32500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3835,17 +4233,17 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>-100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -3859,22 +4257,28 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>3000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-5400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-4600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-6100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-5300</v>
       </c>
       <c r="N89" s="3">
         <v>-5600</v>
       </c>
       <c r="O89" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-29200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4213,16 +4655,22 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>13300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>2800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-11200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1800</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>10400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,17 +5070,17 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4596,28 +5088,34 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>46200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>26300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>16800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>12100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4631,83 +5129,95 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-8700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>8000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-10000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>32500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>20000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>5400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ACST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>ACST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,26 +766,26 @@
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3">
+        <v>100</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
@@ -789,14 +793,17 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,14 +834,14 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,14 +890,14 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>100</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>700</v>
       </c>
       <c r="G12" s="3">
         <v>700</v>
       </c>
       <c r="H12" s="3">
+        <v>700</v>
+      </c>
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,52 +1045,55 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>33900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>6900</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1095,15 +1118,15 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
@@ -1120,22 +1143,25 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>4500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>31100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1225,41 +1255,44 @@
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>-4400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-7900</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1299,41 +1333,44 @@
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-7500</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1352,41 +1389,44 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-7500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-14600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1411,11 +1451,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1430,93 +1470,99 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-38000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-32500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-8900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-200</v>
       </c>
       <c r="H24" s="3">
         <v>-200</v>
       </c>
       <c r="I24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1529,8 +1575,8 @@
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-32500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-32500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1935,94 +2005,100 @@
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>7500</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-32500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-32500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E41" s="3">
         <v>21600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>26200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>38400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>32900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>33100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2292,40 +2382,40 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>5000</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>13300</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>13300</v>
       </c>
       <c r="K42" s="3">
+        <v>13300</v>
+      </c>
+      <c r="L42" s="3">
         <v>13900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2348,46 +2441,49 @@
         <v>800</v>
       </c>
       <c r="G43" s="3">
+        <v>800</v>
+      </c>
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
-      </c>
-      <c r="N43" s="3">
-        <v>800</v>
       </c>
       <c r="O43" s="3">
         <v>800</v>
       </c>
       <c r="P43" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2418,14 +2514,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -2439,114 +2535,123 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E46" s="3">
         <v>23600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>29300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>33400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>45300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>49000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>54500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>60400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>83100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>38000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,16 +2703,19 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
         <v>200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
@@ -2616,19 +2724,19 @@
         <v>600</v>
       </c>
       <c r="H48" s="3">
+        <v>600</v>
+      </c>
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2637,22 +2745,25 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
+        <v>100</v>
+      </c>
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2663,7 +2774,7 @@
         <v>49300</v>
       </c>
       <c r="F49" s="3">
-        <v>82800</v>
+        <v>49300</v>
       </c>
       <c r="G49" s="3">
         <v>82800</v>
@@ -2675,16 +2786,16 @@
         <v>82800</v>
       </c>
       <c r="J49" s="3">
-        <v>65200</v>
+        <v>82800</v>
       </c>
       <c r="K49" s="3">
         <v>65200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3">
+        <v>65200</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2693,19 +2804,22 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>5100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2848,23 +2968,26 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E54" s="3">
         <v>73000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>79100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>116800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>120900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>124900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>128600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>114200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>119800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>83200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>49900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>17300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3112,48 +3246,51 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -3162,69 +3299,75 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3400</v>
       </c>
       <c r="F60" s="3">
         <v>3400</v>
       </c>
       <c r="G60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,61 +3419,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E62" s="3">
         <v>7100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>17100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>39500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E66" s="3">
         <v>9000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>57800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-205600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-202300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-198300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-169200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-165300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-160400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-155800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-151900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-148200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-149100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-194500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-186900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-178900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-170900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-160900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-230600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-210400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E76" s="3">
         <v>64000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>68000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>96700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>100200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>104400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>108300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>111100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>114200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-7900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-32500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-27100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4239,14 +4438,14 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>-100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -4263,22 +4462,25 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>900</v>
       </c>
       <c r="S83" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-29200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4661,16 +4882,19 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>5000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>13300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>2800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1800</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>10400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,13 +5304,16 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5076,14 +5322,14 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5094,28 +5340,31 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>46200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>26300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>16800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>12100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>11100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5135,89 +5384,95 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>32500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5400</v>
       </c>
     </row>
